--- a/RowingSectionTests/TestData.xlsx
+++ b/RowingSectionTests/TestData.xlsx
@@ -25,10 +25,10 @@
     <t>Geralt0001</t>
   </si>
   <si>
-    <t>koalicja1</t>
+    <t>bledne</t>
   </si>
   <si>
-    <t>bledne</t>
+    <t>Koalicja1</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,15 +391,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RowingSectionTests/TestData.xlsx
+++ b/RowingSectionTests/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -29,12 +29,42 @@
   </si>
   <si>
     <t>Koalicja1</t>
+  </si>
+  <si>
+    <t>ContestName</t>
+  </si>
+  <si>
+    <t>ContestDescription</t>
+  </si>
+  <si>
+    <t>ContestDate</t>
+  </si>
+  <si>
+    <t>Nazwa1</t>
+  </si>
+  <si>
+    <t>Nazwa2</t>
+  </si>
+  <si>
+    <t>desc1</t>
+  </si>
+  <si>
+    <t>desc2</t>
+  </si>
+  <si>
+    <t>2014-09-09"</t>
+  </si>
+  <si>
+    <t>2015-01-03"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,8 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,39 +403,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>